--- a/Stocks/GESHIP.xlsx
+++ b/Stocks/GESHIP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>439.98333333333335</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>392.77428467641153</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>393.73398355628945</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>17.791171080623062</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>0.75</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>9.1999999999999886</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>8.1521739130434881E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>402.19622551152918</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-3.7893295077344646</v>
       </c>
       <c r="Y67">
         <v>-1.7489012074872443</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>394.45000000000005</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>392</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>390.90000000000003</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>389.8</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>385.5</v>
+      </c>
+      <c r="D83">
+        <v>391.8</v>
+      </c>
+      <c r="E83">
+        <v>385.5</v>
+      </c>
+      <c r="F83">
+        <v>390</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>389.09999999999997</v>
+      </c>
+      <c r="H83">
+        <v>388.7344013104962</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>390.89856791907937</v>
+      </c>
+      <c r="K83">
+        <v>382.88752851455041</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>57.520677914991438</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>6.3000000000000114</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.71428571428571297</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>387.89135455455272</v>
+      </c>
+      <c r="W83">
+        <v>390.80385543867743</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-2.9125008841247109</v>
+      </c>
+      <c r="Y83">
+        <v>-4.361479543321332</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>395</v>
+      </c>
+      <c r="D84">
+        <v>396.95</v>
+      </c>
+      <c r="E84">
+        <v>382</v>
+      </c>
+      <c r="F84">
+        <v>387</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>388.65000000000003</v>
+      </c>
+      <c r="H84">
+        <v>388.69220065524814</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>392.2433306037284</v>
+      </c>
+      <c r="K84">
+        <v>382.69029995576142</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>47.237922129386661</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>14.949999999999989</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.33444816053511733</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>387.75422308462151</v>
+      </c>
+      <c r="W84">
+        <v>390.52208836914576</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-2.7678652845242482</v>
+      </c>
+      <c r="Y84">
+        <v>-4.0427566915619151</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>389</v>
+      </c>
+      <c r="D85">
+        <v>394.4</v>
+      </c>
+      <c r="E85">
+        <v>385</v>
+      </c>
+      <c r="F85">
+        <v>388.25</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>389.2166666666667</v>
+      </c>
+      <c r="H85">
+        <v>388.95443366095742</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>392.72259046956651</v>
+      </c>
+      <c r="K85">
+        <v>383.20356663225886</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>51.732028472551015</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>3.25</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>9.3999999999999773</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.34574468085106469</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>387.83049645621821</v>
+      </c>
+      <c r="W85">
+        <v>390.35378552698683</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-2.5232890707686124</v>
+      </c>
+      <c r="Y85">
+        <v>-3.7388631674032546</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>392.45</v>
+      </c>
+      <c r="D86">
+        <v>401.85</v>
+      </c>
+      <c r="E86">
+        <v>387.5</v>
+      </c>
+      <c r="F86">
+        <v>399</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>396.11666666666662</v>
+      </c>
+      <c r="H86">
+        <v>392.53555016381199</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>394.75090369855172</v>
+      </c>
+      <c r="K86">
+        <v>384.15832960286798</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>74.803356938987804</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>11.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>14.350000000000023</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.80139372822299526</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>389.54888161680003</v>
+      </c>
+      <c r="W86">
+        <v>390.99424585832111</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-1.4453642415210766</v>
+      </c>
+      <c r="Y86">
+        <v>-3.280163382226819</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>398</v>
+      </c>
+      <c r="D87">
+        <v>402</v>
+      </c>
+      <c r="E87">
+        <v>393.55</v>
+      </c>
+      <c r="F87">
+        <v>397</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>397.51666666666665</v>
+      </c>
+      <c r="H87">
+        <v>395.02610841523932</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>396.36181398776245</v>
+      </c>
+      <c r="K87">
+        <v>386.24536746889731</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>67.320112495773373</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>3.4499999999999886</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>8.4499999999999886</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.40828402366863825</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>390.69520752190772</v>
+      </c>
+      <c r="W87">
+        <v>391.43911653548253</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-0.74390901357480743</v>
+      </c>
+      <c r="Y87">
+        <v>-2.7729125084964168</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>403</v>
+      </c>
+      <c r="D88">
+        <v>405.75</v>
+      </c>
+      <c r="E88">
+        <v>396.5</v>
+      </c>
+      <c r="F88">
+        <v>399</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>400.41666666666669</v>
+      </c>
+      <c r="H88">
+        <v>397.721387540953</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>398.44807754603744</v>
+      </c>
+      <c r="K88">
+        <v>388.52417469803123</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>70.952466131158744</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>9.25</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>391.97286790315269</v>
+      </c>
+      <c r="W88">
+        <v>391.99918197729863</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-2.6314074145943778E-2</v>
+      </c>
+      <c r="Y88">
+        <v>-2.2235928216263221</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>400</v>
+      </c>
+      <c r="D89">
+        <v>401.9</v>
+      </c>
+      <c r="E89">
+        <v>390.4</v>
+      </c>
+      <c r="F89">
+        <v>391.1</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>394.4666666666667</v>
+      </c>
+      <c r="H89">
+        <v>396.09402710380982</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>399.21517142469577</v>
+      </c>
+      <c r="K89">
+        <v>388.94102476513541</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>45.811229823432306</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0.70000000000004547</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>11.5</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>6.0869565217395262E-2</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>391.83858053343687</v>
+      </c>
+      <c r="W89">
+        <v>391.93257590490612</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-9.3995371469247857E-2</v>
+      </c>
+      <c r="Y89">
+        <v>-1.7976733315949072</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>392.1</v>
+      </c>
+      <c r="D90">
+        <v>395.5</v>
+      </c>
+      <c r="E90">
+        <v>388.5</v>
+      </c>
+      <c r="F90">
+        <v>393.1</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>392.36666666666662</v>
+      </c>
+      <c r="H90">
+        <v>394.23034688523819</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>398.38957777476338</v>
+      </c>
+      <c r="K90">
+        <v>388.84301926177199</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>51.274903585502031</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.65714285714286036</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>392.0326450667543</v>
+      </c>
+      <c r="W90">
+        <v>392.01905176380194</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>1.3593302952358499E-2</v>
+      </c>
+      <c r="Y90">
+        <v>-1.4354200046854539</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>391.8</v>
+      </c>
+      <c r="D91">
+        <v>394.95</v>
+      </c>
+      <c r="E91">
+        <v>388</v>
+      </c>
+      <c r="F91">
+        <v>388</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>390.31666666666666</v>
+      </c>
+      <c r="H91">
+        <v>392.27350677595246</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>397.6252271581493</v>
+      </c>
+      <c r="K91">
+        <v>388.65568164804489</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>38.803908021139087</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>6.9499999999999886</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V91">
+        <v>391.41223813340747</v>
+      </c>
+      <c r="W91">
+        <v>391.72134422574254</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-0.30910609233507103</v>
+      </c>
+      <c r="Y91">
+        <v>-1.2101572222153774</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>388</v>
+      </c>
+      <c r="D92">
+        <v>423.8</v>
+      </c>
+      <c r="E92">
+        <v>386.15</v>
+      </c>
+      <c r="F92">
+        <v>418.75</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>409.56666666666666</v>
+      </c>
+      <c r="H92">
+        <v>400.92008672130953</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>403.44184334522726</v>
+      </c>
+      <c r="K92">
+        <v>388.09886350403491</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>78.399441854429114</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>32.600000000000023</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>37.650000000000034</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.86586985391766247</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>395.6180476513448</v>
+      </c>
+      <c r="W92">
+        <v>393.72346687568756</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>1.8945807756572322</v>
+      </c>
+      <c r="Y92">
+        <v>-0.58920962264085541</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>425</v>
+      </c>
+      <c r="D93">
+        <v>425.85</v>
+      </c>
+      <c r="E93">
+        <v>407.5</v>
+      </c>
+      <c r="F93">
+        <v>412.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>415.2833333333333</v>
+      </c>
+      <c r="H93">
+        <v>408.10171002732142</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>408.42143371295452</v>
+      </c>
+      <c r="K93">
+        <v>392.41022716980495</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>67.331087533453243</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>18.350000000000023</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.27247956403269719</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>398.21527108959947</v>
+      </c>
+      <c r="W93">
+        <v>395.11432118119217</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>3.1009499084073013</v>
+      </c>
+      <c r="Y93">
+        <v>0.14882228356877603</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>413.45</v>
+      </c>
+      <c r="D94">
+        <v>423.5</v>
+      </c>
+      <c r="E94">
+        <v>413.4</v>
+      </c>
+      <c r="F94">
+        <v>419.4</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>418.76666666666665</v>
+      </c>
+      <c r="H94">
+        <v>413.43418834699401</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>411.77222622118683</v>
+      </c>
+      <c r="K94">
+        <v>397.07462113207049</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>72.658039907865231</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>10.100000000000023</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.5940594059405927</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>401.474460152738</v>
+      </c>
+      <c r="W94">
+        <v>396.91326035295572</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>4.5611997997822868</v>
+      </c>
+      <c r="Y94">
+        <v>1.0312977868114781</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>426</v>
+      </c>
+      <c r="D95">
+        <v>427</v>
+      </c>
+      <c r="E95">
+        <v>412.45</v>
+      </c>
+      <c r="F95">
+        <v>415</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>418.15000000000003</v>
+      </c>
+      <c r="H95">
+        <v>415.79209417349705</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>415.156175949812</v>
+      </c>
+      <c r="K95">
+        <v>400.49137199161038</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>64.300608543427188</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.5500000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>14.550000000000011</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.17525773195876354</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>403.55531243693218</v>
+      </c>
+      <c r="W95">
+        <v>398.25301884532939</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>5.3022935916027905</v>
+      </c>
+      <c r="Y95">
+        <v>1.8854969477697405</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>416.3</v>
+      </c>
+      <c r="D96">
+        <v>419</v>
+      </c>
+      <c r="E96">
+        <v>411.6</v>
+      </c>
+      <c r="F96">
+        <v>412</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>414.2</v>
+      </c>
+      <c r="H96">
+        <v>414.99604708674849</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>416.01035907207597</v>
+      </c>
+      <c r="K96">
+        <v>402.95995599347475</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>58.559869177999872</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>7.3999999999999773</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>5.405405405405115E-2</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>404.85449513894264</v>
+      </c>
+      <c r="W96">
+        <v>399.27131374567534</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>5.5831813932672958</v>
+      </c>
+      <c r="Y96">
+        <v>2.6250338368692514</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>414.45</v>
+      </c>
+      <c r="D97">
+        <v>429.5</v>
+      </c>
+      <c r="E97">
+        <v>398.8</v>
+      </c>
+      <c r="F97">
+        <v>406.5</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>411.59999999999997</v>
+      </c>
+      <c r="H97">
+        <v>413.29802354337426</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>419.0080570560591</v>
+      </c>
+      <c r="K97">
+        <v>402.03552132825814</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>48.613566359781458</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>30.699999999999989</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.25081433224755673</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>405.10764973295147</v>
+      </c>
+      <c r="W97">
+        <v>399.80677198673641</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>5.3008777462150647</v>
+      </c>
+      <c r="Y97">
+        <v>3.1602026187384142</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>408.6</v>
+      </c>
+      <c r="D98">
+        <v>417.25</v>
+      </c>
+      <c r="E98">
+        <v>396</v>
+      </c>
+      <c r="F98">
+        <v>397.95</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>403.73333333333335</v>
+      </c>
+      <c r="H98">
+        <v>408.5156784383538</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>418.61737771026822</v>
+      </c>
+      <c r="K98">
+        <v>400.69429436642298</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>36.550278146732346</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>21.25</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>9.1764705882352401E-2</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>404.00647285095891</v>
+      </c>
+      <c r="W98">
+        <v>399.66923332105222</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>4.3372395299066966</v>
+      </c>
+      <c r="Y98">
+        <v>3.3956100009720709</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>399.95</v>
+      </c>
+      <c r="D99">
+        <v>406.35</v>
+      </c>
+      <c r="E99">
+        <v>391.8</v>
+      </c>
+      <c r="F99">
+        <v>394</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>397.38333333333338</v>
+      </c>
+      <c r="H99">
+        <v>402.94950588584356</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>415.89129377465304</v>
+      </c>
+      <c r="K99">
+        <v>398.71778450721786</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>31.969077441884391</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>14.550000000000011</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.15120274914089257</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V99">
+        <v>402.46701548927291</v>
+      </c>
+      <c r="W99">
+        <v>399.24929011208536</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>3.2177253771875485</v>
+      </c>
+      <c r="Y99">
+        <v>3.3600330762151662</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>394.95</v>
+      </c>
+      <c r="D100">
+        <v>399.45</v>
+      </c>
+      <c r="E100">
+        <v>394</v>
+      </c>
+      <c r="F100">
+        <v>395</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>396.15000000000003</v>
+      </c>
+      <c r="H100">
+        <v>399.54975294292183</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>412.23767293584126</v>
+      </c>
+      <c r="K100">
+        <v>397.66938795005831</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>34.564539664152598</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>5.4499999999999886</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.18348623853211046</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>401.3182438755386</v>
+      </c>
+      <c r="W100">
+        <v>398.93452788156054</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>2.3837159939780577</v>
+      </c>
+      <c r="Y100">
+        <v>3.1647696597677446</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>397.5</v>
+      </c>
+      <c r="D101">
+        <v>397.5</v>
+      </c>
+      <c r="E101">
+        <v>387.45</v>
+      </c>
+      <c r="F101">
+        <v>392.5</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>392.48333333333335</v>
+      </c>
+      <c r="H101">
+        <v>396.01654313812759</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>408.96263450565431</v>
+      </c>
+      <c r="K101">
+        <v>395.39841285004536</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>30.882633615939355</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>5.0500000000000114</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>10.050000000000011</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.50248756218905533</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>399.96159097160961</v>
+      </c>
+      <c r="W101">
+        <v>398.45789618663014</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>1.5036947849794728</v>
+      </c>
+      <c r="Y101">
+        <v>2.8325546848100904</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>391.05</v>
+      </c>
+      <c r="D102">
+        <v>394.5</v>
+      </c>
+      <c r="E102">
+        <v>382</v>
+      </c>
+      <c r="F102">
+        <v>384.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>387.13333333333338</v>
+      </c>
+      <c r="H102">
+        <v>391.57493823573049</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>405.74871572661999</v>
+      </c>
+      <c r="K102">
+        <v>392.42098777225749</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>21.983870022319589</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.23199999999999818</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>397.64442312982351</v>
+      </c>
+      <c r="W102">
+        <v>397.45360758021309</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>0.19081554961042002</v>
+      </c>
+      <c r="Y102">
+        <v>2.3042068577701564</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>385</v>
+      </c>
+      <c r="D103">
+        <v>386</v>
+      </c>
+      <c r="E103">
+        <v>375</v>
+      </c>
+      <c r="F103">
+        <v>386</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>382.33333333333331</v>
+      </c>
+      <c r="H103">
+        <v>386.9541357845319</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>401.36011223181555</v>
+      </c>
+      <c r="K103">
+        <v>388.54965715620028</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>25.849485190543113</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>395.85297341754296</v>
+      </c>
+      <c r="W103">
+        <v>396.60519220390103</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-0.75221878635807116</v>
+      </c>
+      <c r="Y103">
+        <v>1.6929217289445109</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>384.7</v>
+      </c>
+      <c r="D104">
+        <v>389.4</v>
+      </c>
+      <c r="E104">
+        <v>380.85</v>
+      </c>
+      <c r="F104">
+        <v>385.6</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>385.2833333333333</v>
+      </c>
+      <c r="H104">
+        <v>386.1187345589326</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>398.7023095136343</v>
+      </c>
+      <c r="K104">
+        <v>386.83862223260024</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>25.280120318151216</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.75</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>8.5499999999999545</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.55555555555555847</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>394.27559289176713</v>
+      </c>
+      <c r="W104">
+        <v>395.78999278138986</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-1.5143998896227231</v>
+      </c>
+      <c r="Y104">
+        <v>1.0514574052310639</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
